--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Sfrp2-Fzd5.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Sfrp2-Fzd5.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.599886</v>
+        <v>3.985169</v>
       </c>
       <c r="H2">
-        <v>3.199772</v>
+        <v>7.970338</v>
       </c>
       <c r="I2">
-        <v>0.006312752756792086</v>
+        <v>0.01557285662955989</v>
       </c>
       <c r="J2">
-        <v>0.004220033790925782</v>
+        <v>0.01046077175875826</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -561,28 +561,28 @@
         <v>0.5</v>
       </c>
       <c r="M2">
-        <v>2.170377</v>
+        <v>2.8377025</v>
       </c>
       <c r="N2">
-        <v>4.340754</v>
+        <v>5.675405</v>
       </c>
       <c r="O2">
-        <v>0.1015511790371703</v>
+        <v>0.08520139853031897</v>
       </c>
       <c r="P2">
-        <v>0.07285982038608428</v>
+        <v>0.05979321158534227</v>
       </c>
       <c r="Q2">
-        <v>3.472355777022001</v>
+        <v>11.3087240342225</v>
       </c>
       <c r="R2">
-        <v>13.889423108088</v>
+        <v>45.23489613688999</v>
       </c>
       <c r="S2">
-        <v>0.0006410674854223832</v>
+        <v>0.001326829163950652</v>
       </c>
       <c r="T2">
-        <v>0.0003074709040300588</v>
+        <v>0.0006254831391174054</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.599886</v>
+        <v>3.985169</v>
       </c>
       <c r="H3">
-        <v>3.199772</v>
+        <v>7.970338</v>
       </c>
       <c r="I3">
-        <v>0.006312752756792086</v>
+        <v>0.01557285662955989</v>
       </c>
       <c r="J3">
-        <v>0.004220033790925782</v>
+        <v>0.01046077175875826</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>15.185923</v>
       </c>
       <c r="O3">
-        <v>0.2368480046581279</v>
+        <v>0.1519846751111432</v>
       </c>
       <c r="P3">
-        <v>0.2548966428820675</v>
+        <v>0.1599912441592654</v>
       </c>
       <c r="Q3">
-        <v>8.098581868259332</v>
+        <v>20.17282319199566</v>
       </c>
       <c r="R3">
-        <v>48.591491209556</v>
+        <v>121.036939151974</v>
       </c>
       <c r="S3">
-        <v>0.001495162894346302</v>
+        <v>0.002366835555396073</v>
       </c>
       <c r="T3">
-        <v>0.001075672446155867</v>
+        <v>0.001673631888549841</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.599886</v>
+        <v>3.985169</v>
       </c>
       <c r="H4">
-        <v>3.199772</v>
+        <v>7.970338</v>
       </c>
       <c r="I4">
-        <v>0.006312752756792086</v>
+        <v>0.01557285662955989</v>
       </c>
       <c r="J4">
-        <v>0.004220033790925782</v>
+        <v>0.01046077175875826</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>3.815520666666667</v>
+        <v>4.372280666666666</v>
       </c>
       <c r="N4">
-        <v>11.446562</v>
+        <v>13.116842</v>
       </c>
       <c r="O4">
-        <v>0.1785268745202745</v>
+        <v>0.1312767732230829</v>
       </c>
       <c r="P4">
-        <v>0.1921312406457905</v>
+        <v>0.1381924477702479</v>
       </c>
       <c r="Q4">
-        <v>6.104398097310667</v>
+        <v>17.42427737209933</v>
       </c>
       <c r="R4">
-        <v>36.62638858386401</v>
+        <v>104.545664232596</v>
       </c>
       <c r="S4">
-        <v>0.001126996019289338</v>
+        <v>0.002044354368194316</v>
       </c>
       <c r="T4">
-        <v>0.0008108003278177288</v>
+        <v>0.001445599654908685</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.599886</v>
+        <v>3.985169</v>
       </c>
       <c r="H5">
-        <v>3.199772</v>
+        <v>7.970338</v>
       </c>
       <c r="I5">
-        <v>0.006312752756792086</v>
+        <v>0.01557285662955989</v>
       </c>
       <c r="J5">
-        <v>0.004220033790925782</v>
+        <v>0.01046077175875826</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.3695805</v>
+        <v>2.1625465</v>
       </c>
       <c r="N5">
-        <v>4.739161</v>
+        <v>4.325093</v>
       </c>
       <c r="O5">
-        <v>0.1108718409743963</v>
+        <v>0.06492998691259792</v>
       </c>
       <c r="P5">
-        <v>0.07954710615730251</v>
+        <v>0.04556700374251401</v>
       </c>
       <c r="Q5">
-        <v>3.791058667823</v>
+        <v>8.618113272858499</v>
       </c>
       <c r="R5">
-        <v>15.164234671292</v>
+        <v>34.472453091434</v>
       </c>
       <c r="S5">
-        <v>0.0006999065197617342</v>
+        <v>0.001011145377149088</v>
       </c>
       <c r="T5">
-        <v>0.0003356914759541769</v>
+        <v>0.0004766660258809224</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.599886</v>
+        <v>3.985169</v>
       </c>
       <c r="H6">
-        <v>3.199772</v>
+        <v>7.970338</v>
       </c>
       <c r="I6">
-        <v>0.006312752756792086</v>
+        <v>0.01557285662955989</v>
       </c>
       <c r="J6">
-        <v>0.004220033790925782</v>
+        <v>0.01046077175875826</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>3.288577</v>
+        <v>15.97657333333333</v>
       </c>
       <c r="N6">
-        <v>9.865731</v>
+        <v>47.92972</v>
       </c>
       <c r="O6">
-        <v>0.1538713650690733</v>
+        <v>0.479693129114909</v>
       </c>
       <c r="P6">
-        <v>0.1655968959856798</v>
+        <v>0.5049634148023289</v>
       </c>
       <c r="Q6">
-        <v>5.261348302222</v>
+        <v>63.66934477422667</v>
       </c>
       <c r="R6">
-        <v>31.568089813332</v>
+        <v>382.01606864536</v>
       </c>
       <c r="S6">
-        <v>0.0009713518840311542</v>
+        <v>0.007470192325891438</v>
       </c>
       <c r="T6">
-        <v>0.0006988244967319908</v>
+        <v>0.005282307028770333</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.599886</v>
+        <v>3.985169</v>
       </c>
       <c r="H7">
-        <v>3.199772</v>
+        <v>7.970338</v>
       </c>
       <c r="I7">
-        <v>0.006312752756792086</v>
+        <v>0.01557285662955989</v>
       </c>
       <c r="J7">
-        <v>0.004220033790925782</v>
+        <v>0.01046077175875826</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>4.666218666666667</v>
+        <v>2.894743333333333</v>
       </c>
       <c r="N7">
-        <v>13.998656</v>
+        <v>8.684229999999999</v>
       </c>
       <c r="O7">
-        <v>0.2183307357409577</v>
+        <v>0.08691403710794816</v>
       </c>
       <c r="P7">
-        <v>0.2349682939430755</v>
+        <v>0.0914926779403015</v>
       </c>
       <c r="Q7">
-        <v>7.465417917738667</v>
+        <v>11.53604139495667</v>
       </c>
       <c r="R7">
-        <v>44.792507506432</v>
+        <v>69.21624836974</v>
       </c>
       <c r="S7">
-        <v>0.001378267953941175</v>
+        <v>0.001353499838978325</v>
       </c>
       <c r="T7">
-        <v>0.0009915741402359605</v>
+        <v>0.0009570840215310706</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>740.715897</v>
       </c>
       <c r="I8">
-        <v>0.974226980502876</v>
+        <v>0.9648325635388655</v>
       </c>
       <c r="J8">
-        <v>0.9768965147566455</v>
+        <v>0.9721620258263691</v>
       </c>
       <c r="K8">
         <v>1</v>
@@ -933,28 +933,28 @@
         <v>0.5</v>
       </c>
       <c r="M8">
-        <v>2.170377</v>
+        <v>2.8377025</v>
       </c>
       <c r="N8">
-        <v>4.340754</v>
+        <v>5.675405</v>
       </c>
       <c r="O8">
-        <v>0.1015511790371703</v>
+        <v>0.08520139853031897</v>
       </c>
       <c r="P8">
-        <v>0.07285982038608428</v>
+        <v>0.05979321158534227</v>
       </c>
       <c r="Q8">
-        <v>535.877582127723</v>
+        <v>700.6437842355475</v>
       </c>
       <c r="R8">
-        <v>3215.265492766338</v>
+        <v>4203.862705413285</v>
       </c>
       <c r="S8">
-        <v>0.09893389851988935</v>
+        <v>0.08220508376110418</v>
       </c>
       <c r="T8">
-        <v>0.07117650460096092</v>
+        <v>0.05812868970547106</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>740.715897</v>
       </c>
       <c r="I9">
-        <v>0.974226980502876</v>
+        <v>0.9648325635388655</v>
       </c>
       <c r="J9">
-        <v>0.9768965147566455</v>
+        <v>0.9721620258263691</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>15.185923</v>
       </c>
       <c r="O9">
-        <v>0.2368480046581279</v>
+        <v>0.1519846751111432</v>
       </c>
       <c r="P9">
-        <v>0.2548966428820675</v>
+        <v>0.1599912441592654</v>
       </c>
       <c r="Q9">
         <v>1249.828286301992</v>
@@ -1013,10 +1013,10 @@
         <v>11248.45457671793</v>
       </c>
       <c r="S9">
-        <v>0.2307437164162191</v>
+        <v>0.146639763706106</v>
       </c>
       <c r="T9">
-        <v>0.249007642054661</v>
+        <v>0.1555374120363527</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>740.715897</v>
       </c>
       <c r="I10">
-        <v>0.974226980502876</v>
+        <v>0.9648325635388655</v>
       </c>
       <c r="J10">
-        <v>0.9768965147566455</v>
+        <v>0.9721620258263691</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>3.815520666666667</v>
+        <v>4.372280666666666</v>
       </c>
       <c r="N10">
-        <v>11.446562</v>
+        <v>13.116842</v>
       </c>
       <c r="O10">
-        <v>0.1785268745202745</v>
+        <v>0.1312767732230829</v>
       </c>
       <c r="P10">
-        <v>0.1921312406457905</v>
+        <v>0.1381924477702479</v>
       </c>
       <c r="Q10">
-        <v>942.0722710440127</v>
+        <v>1079.539265315253</v>
       </c>
       <c r="R10">
-        <v>8478.650439396115</v>
+        <v>9715.853387837273</v>
       </c>
       <c r="S10">
-        <v>0.1739256979025029</v>
+        <v>0.1266601056419373</v>
       </c>
       <c r="T10">
-        <v>0.187692339362743</v>
+        <v>0.1343454499782289</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>740.715897</v>
       </c>
       <c r="I11">
-        <v>0.974226980502876</v>
+        <v>0.9648325635388655</v>
       </c>
       <c r="J11">
-        <v>0.9768965147566455</v>
+        <v>0.9721620258263691</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>2.3695805</v>
+        <v>2.1625465</v>
       </c>
       <c r="N11">
-        <v>4.739161</v>
+        <v>4.325093</v>
       </c>
       <c r="O11">
-        <v>0.1108718409743963</v>
+        <v>0.06492998691259792</v>
       </c>
       <c r="P11">
-        <v>0.07954710615730251</v>
+        <v>0.04556700374251401</v>
       </c>
       <c r="Q11">
-        <v>585.0619818570696</v>
+        <v>533.9441901839035</v>
       </c>
       <c r="R11">
-        <v>3510.371891142418</v>
+        <v>3203.665141103421</v>
       </c>
       <c r="S11">
-        <v>0.1080143388552812</v>
+        <v>0.06264656572342683</v>
       </c>
       <c r="T11">
-        <v>0.07770929076404572</v>
+        <v>0.04429851066916016</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>740.715897</v>
       </c>
       <c r="I12">
-        <v>0.974226980502876</v>
+        <v>0.9648325635388655</v>
       </c>
       <c r="J12">
-        <v>0.9768965147566455</v>
+        <v>0.9721620258263691</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>3.288577</v>
+        <v>15.97657333333333</v>
       </c>
       <c r="N12">
-        <v>9.865731</v>
+        <v>47.92972</v>
       </c>
       <c r="O12">
-        <v>0.1538713650690733</v>
+        <v>0.479693129114909</v>
       </c>
       <c r="P12">
-        <v>0.1655968959856798</v>
+        <v>0.5049634148023289</v>
       </c>
       <c r="Q12">
-        <v>811.9670874695231</v>
+        <v>3944.700615862094</v>
       </c>
       <c r="R12">
-        <v>7307.703787225708</v>
+        <v>35502.30554275885</v>
       </c>
       <c r="S12">
-        <v>0.149905635377099</v>
+        <v>0.4628235514759176</v>
       </c>
       <c r="T12">
-        <v>0.1617710305429294</v>
+        <v>0.4909062563024332</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>740.715897</v>
       </c>
       <c r="I13">
-        <v>0.974226980502876</v>
+        <v>0.9648325635388655</v>
       </c>
       <c r="J13">
-        <v>0.9768965147566455</v>
+        <v>0.9721620258263691</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>4.666218666666667</v>
+        <v>2.894743333333333</v>
       </c>
       <c r="N13">
-        <v>13.998656</v>
+        <v>8.684229999999999</v>
       </c>
       <c r="O13">
-        <v>0.2183307357409577</v>
+        <v>0.08691403710794816</v>
       </c>
       <c r="P13">
-        <v>0.2349682939430755</v>
+        <v>0.0914926779403015</v>
       </c>
       <c r="Q13">
-        <v>1152.114115092715</v>
+        <v>714.7274682449233</v>
       </c>
       <c r="R13">
-        <v>10369.02703583443</v>
+        <v>6432.54721420431</v>
       </c>
       <c r="S13">
-        <v>0.2127036934318845</v>
+        <v>0.08385749323037371</v>
       </c>
       <c r="T13">
-        <v>0.2295397074313055</v>
+        <v>0.08894570713472305</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.749269</v>
+        <v>0.91539</v>
       </c>
       <c r="H14">
-        <v>2.247807</v>
+        <v>2.74617</v>
       </c>
       <c r="I14">
-        <v>0.002956429361422532</v>
+        <v>0.003577072196971528</v>
       </c>
       <c r="J14">
-        <v>0.002964530440131206</v>
+        <v>0.003604245840107304</v>
       </c>
       <c r="K14">
         <v>1</v>
@@ -1305,28 +1305,28 @@
         <v>0.5</v>
       </c>
       <c r="M14">
-        <v>2.170377</v>
+        <v>2.8377025</v>
       </c>
       <c r="N14">
-        <v>4.340754</v>
+        <v>5.675405</v>
       </c>
       <c r="O14">
-        <v>0.1015511790371703</v>
+        <v>0.08520139853031897</v>
       </c>
       <c r="P14">
-        <v>0.07285982038608428</v>
+        <v>0.05979321158534227</v>
       </c>
       <c r="Q14">
-        <v>1.626196204413</v>
+        <v>2.597604491475</v>
       </c>
       <c r="R14">
-        <v>9.757177226478001</v>
+        <v>15.58562694885</v>
       </c>
       <c r="S14">
-        <v>0.0003002288873925665</v>
+        <v>0.0003047715538258948</v>
       </c>
       <c r="T14">
-        <v>0.000215995155397039</v>
+        <v>0.0002155094341231257</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.749269</v>
+        <v>0.91539</v>
       </c>
       <c r="H15">
-        <v>2.247807</v>
+        <v>2.74617</v>
       </c>
       <c r="I15">
-        <v>0.002956429361422532</v>
+        <v>0.003577072196971528</v>
       </c>
       <c r="J15">
-        <v>0.002964530440131206</v>
+        <v>0.003604245840107304</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>15.185923</v>
       </c>
       <c r="O15">
-        <v>0.2368480046581279</v>
+        <v>0.1519846751111432</v>
       </c>
       <c r="P15">
-        <v>0.2548966428820675</v>
+        <v>0.1599912441592654</v>
       </c>
       <c r="Q15">
-        <v>3.792780446762333</v>
+        <v>4.63368068499</v>
       </c>
       <c r="R15">
-        <v>34.135024020861</v>
+        <v>41.70312616491</v>
       </c>
       <c r="S15">
-        <v>0.0007002243951656301</v>
+        <v>0.0005436601557058211</v>
       </c>
       <c r="T15">
-        <v>0.0007556488569111422</v>
+        <v>0.0005766477762146243</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.749269</v>
+        <v>0.91539</v>
       </c>
       <c r="H16">
-        <v>2.247807</v>
+        <v>2.74617</v>
       </c>
       <c r="I16">
-        <v>0.002956429361422532</v>
+        <v>0.003577072196971528</v>
       </c>
       <c r="J16">
-        <v>0.002964530440131206</v>
+        <v>0.003604245840107304</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>3.815520666666667</v>
+        <v>4.372280666666666</v>
       </c>
       <c r="N16">
-        <v>11.446562</v>
+        <v>13.116842</v>
       </c>
       <c r="O16">
-        <v>0.1785268745202745</v>
+        <v>0.1312767732230829</v>
       </c>
       <c r="P16">
-        <v>0.1921312406457905</v>
+        <v>0.1381924477702479</v>
       </c>
       <c r="Q16">
-        <v>2.858851354392666</v>
+        <v>4.00234199946</v>
       </c>
       <c r="R16">
-        <v>25.729662189534</v>
+        <v>36.02107799514</v>
       </c>
       <c r="S16">
-        <v>0.0005278020936347357</v>
+        <v>0.0004695864956044261</v>
       </c>
       <c r="T16">
-        <v>0.0005695789113946198</v>
+        <v>0.0004980795550101619</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G17">
-        <v>0.749269</v>
+        <v>0.91539</v>
       </c>
       <c r="H17">
-        <v>2.247807</v>
+        <v>2.74617</v>
       </c>
       <c r="I17">
-        <v>0.002956429361422532</v>
+        <v>0.003577072196971528</v>
       </c>
       <c r="J17">
-        <v>0.002964530440131206</v>
+        <v>0.003604245840107304</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>2.3695805</v>
+        <v>2.1625465</v>
       </c>
       <c r="N17">
-        <v>4.739161</v>
+        <v>4.325093</v>
       </c>
       <c r="O17">
-        <v>0.1108718409743963</v>
+        <v>0.06492998691259792</v>
       </c>
       <c r="P17">
-        <v>0.07954710615730251</v>
+        <v>0.04556700374251401</v>
       </c>
       <c r="Q17">
-        <v>1.7754532116545</v>
+        <v>1.979573440635</v>
       </c>
       <c r="R17">
-        <v>10.652719269927</v>
+        <v>11.87744064381</v>
       </c>
       <c r="S17">
-        <v>0.0003277847660116751</v>
+        <v>0.0002322592509347792</v>
       </c>
       <c r="T17">
-        <v>0.0002358198176276717</v>
+        <v>0.0001642346836851101</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G18">
-        <v>0.749269</v>
+        <v>0.91539</v>
       </c>
       <c r="H18">
-        <v>2.247807</v>
+        <v>2.74617</v>
       </c>
       <c r="I18">
-        <v>0.002956429361422532</v>
+        <v>0.003577072196971528</v>
       </c>
       <c r="J18">
-        <v>0.002964530440131206</v>
+        <v>0.003604245840107304</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>3.288577</v>
+        <v>15.97657333333333</v>
       </c>
       <c r="N18">
-        <v>9.865731</v>
+        <v>47.92972</v>
       </c>
       <c r="O18">
-        <v>0.1538713650690733</v>
+        <v>0.479693129114909</v>
       </c>
       <c r="P18">
-        <v>0.1655968959856798</v>
+        <v>0.5049634148023289</v>
       </c>
       <c r="Q18">
-        <v>2.464028800213</v>
+        <v>14.6247954636</v>
       </c>
       <c r="R18">
-        <v>22.176259201917</v>
+        <v>131.6231591724</v>
       </c>
       <c r="S18">
-        <v>0.0004549098215723738</v>
+        <v>0.001715896955235214</v>
       </c>
       <c r="T18">
-        <v>0.0004909170389407889</v>
+        <v>0.001820012287207673</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G19">
-        <v>0.749269</v>
+        <v>0.91539</v>
       </c>
       <c r="H19">
-        <v>2.247807</v>
+        <v>2.74617</v>
       </c>
       <c r="I19">
-        <v>0.002956429361422532</v>
+        <v>0.003577072196971528</v>
       </c>
       <c r="J19">
-        <v>0.002964530440131206</v>
+        <v>0.003604245840107304</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>4.666218666666667</v>
+        <v>2.894743333333333</v>
       </c>
       <c r="N19">
-        <v>13.998656</v>
+        <v>8.684229999999999</v>
       </c>
       <c r="O19">
-        <v>0.2183307357409577</v>
+        <v>0.08691403710794816</v>
       </c>
       <c r="P19">
-        <v>0.2349682939430755</v>
+        <v>0.0914926779403015</v>
       </c>
       <c r="Q19">
-        <v>3.496252994154666</v>
+        <v>2.6498190999</v>
       </c>
       <c r="R19">
-        <v>31.466276947392</v>
+        <v>23.8483718991</v>
       </c>
       <c r="S19">
-        <v>0.0006454793976455511</v>
+        <v>0.0003108977856653931</v>
       </c>
       <c r="T19">
-        <v>0.0006965706598599442</v>
+        <v>0.0003297621038666089</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>0.477793</v>
+        <v>1.802893</v>
       </c>
       <c r="H20">
-        <v>0.955586</v>
+        <v>3.605786</v>
       </c>
       <c r="I20">
-        <v>0.001885252497944204</v>
+        <v>0.007045170281972261</v>
       </c>
       <c r="J20">
-        <v>0.001260278923040643</v>
+        <v>0.004732459822522696</v>
       </c>
       <c r="K20">
         <v>1</v>
@@ -1677,28 +1677,28 @@
         <v>0.5</v>
       </c>
       <c r="M20">
-        <v>2.170377</v>
+        <v>2.8377025</v>
       </c>
       <c r="N20">
-        <v>4.340754</v>
+        <v>5.675405</v>
       </c>
       <c r="O20">
-        <v>0.1015511790371703</v>
+        <v>0.08520139853031897</v>
       </c>
       <c r="P20">
-        <v>0.07285982038608428</v>
+        <v>0.05979321158534227</v>
       </c>
       <c r="Q20">
-        <v>1.036990937961</v>
+        <v>5.116073973332499</v>
       </c>
       <c r="R20">
-        <v>4.147963751844</v>
+        <v>20.46429589333</v>
       </c>
       <c r="S20">
-        <v>0.0001914496139490043</v>
+        <v>0.0006002583609082783</v>
       </c>
       <c r="T20">
-        <v>9.1823695969109E-05</v>
+        <v>0.0002829689714872309</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>0.477793</v>
+        <v>1.802893</v>
       </c>
       <c r="H21">
-        <v>0.955586</v>
+        <v>3.605786</v>
       </c>
       <c r="I21">
-        <v>0.001885252497944204</v>
+        <v>0.007045170281972261</v>
       </c>
       <c r="J21">
-        <v>0.001260278923040643</v>
+        <v>0.004732459822522696</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>15.185923</v>
       </c>
       <c r="O21">
-        <v>0.2368480046581279</v>
+        <v>0.1519846751111432</v>
       </c>
       <c r="P21">
-        <v>0.2548966428820675</v>
+        <v>0.1599912441592654</v>
       </c>
       <c r="Q21">
-        <v>2.418575902646333</v>
+        <v>9.126198091746332</v>
       </c>
       <c r="R21">
-        <v>14.511455415878</v>
+        <v>54.75718855047799</v>
       </c>
       <c r="S21">
-        <v>0.0004465182924148362</v>
+        <v>0.001070757916408236</v>
       </c>
       <c r="T21">
-        <v>0.0003212408665780874</v>
+        <v>0.0007571521349391424</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>0.477793</v>
+        <v>1.802893</v>
       </c>
       <c r="H22">
-        <v>0.955586</v>
+        <v>3.605786</v>
       </c>
       <c r="I22">
-        <v>0.001885252497944204</v>
+        <v>0.007045170281972261</v>
       </c>
       <c r="J22">
-        <v>0.001260278923040643</v>
+        <v>0.004732459822522696</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>3.815520666666667</v>
+        <v>4.372280666666666</v>
       </c>
       <c r="N22">
-        <v>11.446562</v>
+        <v>13.116842</v>
       </c>
       <c r="O22">
-        <v>0.1785268745202745</v>
+        <v>0.1312767732230829</v>
       </c>
       <c r="P22">
-        <v>0.1921312406457905</v>
+        <v>0.1381924477702479</v>
       </c>
       <c r="Q22">
-        <v>1.823029065888667</v>
+        <v>7.882754207968665</v>
       </c>
       <c r="R22">
-        <v>10.938174395332</v>
+        <v>47.29652524781199</v>
       </c>
       <c r="S22">
-        <v>0.000336568236139519</v>
+        <v>0.0009248672214244753</v>
       </c>
       <c r="T22">
-        <v>0.0002421389530435394</v>
+        <v>0.0006539902068487645</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>0.477793</v>
+        <v>1.802893</v>
       </c>
       <c r="H23">
-        <v>0.955586</v>
+        <v>3.605786</v>
       </c>
       <c r="I23">
-        <v>0.001885252497944204</v>
+        <v>0.007045170281972261</v>
       </c>
       <c r="J23">
-        <v>0.001260278923040643</v>
+        <v>0.004732459822522696</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>2.3695805</v>
+        <v>2.1625465</v>
       </c>
       <c r="N23">
-        <v>4.739161</v>
+        <v>4.325093</v>
       </c>
       <c r="O23">
-        <v>0.1108718409743963</v>
+        <v>0.06492998691259792</v>
       </c>
       <c r="P23">
-        <v>0.07954710615730251</v>
+        <v>0.04556700374251401</v>
       </c>
       <c r="Q23">
-        <v>1.1321689758365</v>
+        <v>3.898839947024499</v>
       </c>
       <c r="R23">
-        <v>4.528675903346</v>
+        <v>15.595359788098</v>
       </c>
       <c r="S23">
-        <v>0.0002090214151486533</v>
+        <v>0.0004574428142054827</v>
       </c>
       <c r="T23">
-        <v>0.0001002515412789249</v>
+        <v>0.0002156440144441889</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>0.477793</v>
+        <v>1.802893</v>
       </c>
       <c r="H24">
-        <v>0.955586</v>
+        <v>3.605786</v>
       </c>
       <c r="I24">
-        <v>0.001885252497944204</v>
+        <v>0.007045170281972261</v>
       </c>
       <c r="J24">
-        <v>0.001260278923040643</v>
+        <v>0.004732459822522696</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>3.288577</v>
+        <v>15.97657333333333</v>
       </c>
       <c r="N24">
-        <v>9.865731</v>
+        <v>47.92972</v>
       </c>
       <c r="O24">
-        <v>0.1538713650690733</v>
+        <v>0.479693129114909</v>
       </c>
       <c r="P24">
-        <v>0.1655968959856798</v>
+        <v>0.5049634148023289</v>
       </c>
       <c r="Q24">
-        <v>1.571259070561</v>
+        <v>28.80405222665333</v>
       </c>
       <c r="R24">
-        <v>9.427554423366001</v>
+        <v>172.82431335992</v>
       </c>
       <c r="S24">
-        <v>0.0002900863753585551</v>
+        <v>0.00337951977770664</v>
       </c>
       <c r="T24">
-        <v>0.000208698277731706</v>
+        <v>0.002389719072395884</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>0.477793</v>
+        <v>1.802893</v>
       </c>
       <c r="H25">
-        <v>0.955586</v>
+        <v>3.605786</v>
       </c>
       <c r="I25">
-        <v>0.001885252497944204</v>
+        <v>0.007045170281972261</v>
       </c>
       <c r="J25">
-        <v>0.001260278923040643</v>
+        <v>0.004732459822522696</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>4.666218666666667</v>
+        <v>2.894743333333333</v>
       </c>
       <c r="N25">
-        <v>13.998656</v>
+        <v>8.684229999999999</v>
       </c>
       <c r="O25">
-        <v>0.2183307357409577</v>
+        <v>0.08691403710794816</v>
       </c>
       <c r="P25">
-        <v>0.2349682939430755</v>
+        <v>0.0914926779403015</v>
       </c>
       <c r="Q25">
-        <v>2.229486615402667</v>
+        <v>5.218912492463332</v>
       </c>
       <c r="R25">
-        <v>13.376919692416</v>
+        <v>31.31347495477999</v>
       </c>
       <c r="S25">
-        <v>0.0004116085649336364</v>
+        <v>0.0006123241913191508</v>
       </c>
       <c r="T25">
-        <v>0.0002961255884392765</v>
+        <v>0.0004329854224074854</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>2.797539333333333</v>
+        <v>1.926016</v>
       </c>
       <c r="H26">
-        <v>8.392618000000001</v>
+        <v>5.778048</v>
       </c>
       <c r="I26">
-        <v>0.01103839532237565</v>
+        <v>0.007526298391420394</v>
       </c>
       <c r="J26">
-        <v>0.01106864225148916</v>
+        <v>0.007583472788625732</v>
       </c>
       <c r="K26">
         <v>1</v>
@@ -2049,28 +2049,28 @@
         <v>0.5</v>
       </c>
       <c r="M26">
-        <v>2.170377</v>
+        <v>2.8377025</v>
       </c>
       <c r="N26">
-        <v>4.340754</v>
+        <v>5.675405</v>
       </c>
       <c r="O26">
-        <v>0.1015511790371703</v>
+        <v>0.08520139853031897</v>
       </c>
       <c r="P26">
-        <v>0.07285982038608428</v>
+        <v>0.05979321158534227</v>
       </c>
       <c r="Q26">
-        <v>6.071715025662001</v>
+        <v>5.465460418239999</v>
       </c>
       <c r="R26">
-        <v>36.43029015397201</v>
+        <v>32.79276250944</v>
       </c>
       <c r="S26">
-        <v>0.001120962059665633</v>
+        <v>0.0006412511487055076</v>
       </c>
       <c r="T26">
-        <v>0.0008064592863613235</v>
+        <v>0.0004534401930019839</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>2.797539333333333</v>
+        <v>1.926016</v>
       </c>
       <c r="H27">
-        <v>8.392618000000001</v>
+        <v>5.778048</v>
       </c>
       <c r="I27">
-        <v>0.01103839532237565</v>
+        <v>0.007526298391420394</v>
       </c>
       <c r="J27">
-        <v>0.01106864225148916</v>
+        <v>0.007583472788625732</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>15.185923</v>
       </c>
       <c r="O27">
-        <v>0.2368480046581279</v>
+        <v>0.1519846751111432</v>
       </c>
       <c r="P27">
-        <v>0.2548966428820675</v>
+        <v>0.1599912441592654</v>
       </c>
       <c r="Q27">
-        <v>14.16107230182378</v>
+        <v>9.749443557589332</v>
       </c>
       <c r="R27">
-        <v>127.449650716414</v>
+        <v>87.74499201830399</v>
       </c>
       <c r="S27">
-        <v>0.002614421906732286</v>
+        <v>0.001143882015809549</v>
       </c>
       <c r="T27">
-        <v>0.002821359751167195</v>
+        <v>0.001213289246500164</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>2.797539333333333</v>
+        <v>1.926016</v>
       </c>
       <c r="H28">
-        <v>8.392618000000001</v>
+        <v>5.778048</v>
       </c>
       <c r="I28">
-        <v>0.01103839532237565</v>
+        <v>0.007526298391420394</v>
       </c>
       <c r="J28">
-        <v>0.01106864225148916</v>
+        <v>0.007583472788625732</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>3.815520666666667</v>
+        <v>4.372280666666666</v>
       </c>
       <c r="N28">
-        <v>11.446562</v>
+        <v>13.116842</v>
       </c>
       <c r="O28">
-        <v>0.1785268745202745</v>
+        <v>0.1312767732230829</v>
       </c>
       <c r="P28">
-        <v>0.1921312406457905</v>
+        <v>0.1381924477702479</v>
       </c>
       <c r="Q28">
-        <v>10.67406914214622</v>
+        <v>8.421082520490664</v>
       </c>
       <c r="R28">
-        <v>96.06662227931601</v>
+        <v>75.789742684416</v>
       </c>
       <c r="S28">
-        <v>0.001970650216622943</v>
+        <v>0.0009880281671397484</v>
       </c>
       <c r="T28">
-        <v>0.002126631968043027</v>
+        <v>0.001047978667259258</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>2.797539333333333</v>
+        <v>1.926016</v>
       </c>
       <c r="H29">
-        <v>8.392618000000001</v>
+        <v>5.778048</v>
       </c>
       <c r="I29">
-        <v>0.01103839532237565</v>
+        <v>0.007526298391420394</v>
       </c>
       <c r="J29">
-        <v>0.01106864225148916</v>
+        <v>0.007583472788625732</v>
       </c>
       <c r="K29">
         <v>2</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>2.3695805</v>
+        <v>2.1625465</v>
       </c>
       <c r="N29">
-        <v>4.739161</v>
+        <v>4.325093</v>
       </c>
       <c r="O29">
-        <v>0.1108718409743963</v>
+        <v>0.06492998691259792</v>
       </c>
       <c r="P29">
-        <v>0.07954710615730251</v>
+        <v>0.04556700374251401</v>
       </c>
       <c r="Q29">
-        <v>6.628994652249667</v>
+        <v>4.165099159744</v>
       </c>
       <c r="R29">
-        <v>39.77396791349801</v>
+        <v>24.990594958464</v>
       </c>
       <c r="S29">
-        <v>0.001223847210794954</v>
+        <v>0.000488682456055233</v>
       </c>
       <c r="T29">
-        <v>0.0008804784601964118</v>
+        <v>0.0003455561329405619</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>2.797539333333333</v>
+        <v>1.926016</v>
       </c>
       <c r="H30">
-        <v>8.392618000000001</v>
+        <v>5.778048</v>
       </c>
       <c r="I30">
-        <v>0.01103839532237565</v>
+        <v>0.007526298391420394</v>
       </c>
       <c r="J30">
-        <v>0.01106864225148916</v>
+        <v>0.007583472788625732</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>3.288577</v>
+        <v>15.97657333333333</v>
       </c>
       <c r="N30">
-        <v>9.865731</v>
+        <v>47.92972</v>
       </c>
       <c r="O30">
-        <v>0.1538713650690733</v>
+        <v>0.479693129114909</v>
       </c>
       <c r="P30">
-        <v>0.1655968959856798</v>
+        <v>0.5049634148023289</v>
       </c>
       <c r="Q30">
-        <v>9.199923508195333</v>
+        <v>30.77113586517333</v>
       </c>
       <c r="R30">
-        <v>82.799311573758</v>
+        <v>276.94022278656</v>
       </c>
       <c r="S30">
-        <v>0.001698492956426016</v>
+        <v>0.003610313626032955</v>
       </c>
       <c r="T30">
-        <v>0.00183293279962255</v>
+        <v>0.003829376315404989</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>2.797539333333333</v>
+        <v>1.926016</v>
       </c>
       <c r="H31">
-        <v>8.392618000000001</v>
+        <v>5.778048</v>
       </c>
       <c r="I31">
-        <v>0.01103839532237565</v>
+        <v>0.007526298391420394</v>
       </c>
       <c r="J31">
-        <v>0.01106864225148916</v>
+        <v>0.007583472788625732</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>4.666218666666667</v>
+        <v>2.894743333333333</v>
       </c>
       <c r="N31">
-        <v>13.998656</v>
+        <v>8.684229999999999</v>
       </c>
       <c r="O31">
-        <v>0.2183307357409577</v>
+        <v>0.08691403710794816</v>
       </c>
       <c r="P31">
-        <v>0.2349682939430755</v>
+        <v>0.0914926779403015</v>
       </c>
       <c r="Q31">
-        <v>13.05393025793422</v>
+        <v>5.575321975893332</v>
       </c>
       <c r="R31">
-        <v>117.485372321408</v>
+        <v>50.17789778304</v>
       </c>
       <c r="S31">
-        <v>0.002410020972133822</v>
+        <v>0.0006541409776774027</v>
       </c>
       <c r="T31">
-        <v>0.002600779986098649</v>
+        <v>0.0006938322335187741</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2397,22 +2397,22 @@
         <v>20</v>
       </c>
       <c r="E32">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F32">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G32">
-        <v>0.907353</v>
+        <v>0.3700483333333333</v>
       </c>
       <c r="H32">
-        <v>2.722059</v>
+        <v>1.110145</v>
       </c>
       <c r="I32">
-        <v>0.00358018955858953</v>
+        <v>0.001446038961210324</v>
       </c>
       <c r="J32">
-        <v>0.003589999837767704</v>
+        <v>0.001457023963616936</v>
       </c>
       <c r="K32">
         <v>1</v>
@@ -2421,28 +2421,28 @@
         <v>0.5</v>
       </c>
       <c r="M32">
-        <v>2.170377</v>
+        <v>2.8377025</v>
       </c>
       <c r="N32">
-        <v>4.340754</v>
+        <v>5.675405</v>
       </c>
       <c r="O32">
-        <v>0.1015511790371703</v>
+        <v>0.08520139853031897</v>
       </c>
       <c r="P32">
-        <v>0.07285982038608428</v>
+        <v>0.05979321158534227</v>
       </c>
       <c r="Q32">
-        <v>1.969298082081</v>
+        <v>1.050087080620833</v>
       </c>
       <c r="R32">
-        <v>11.815788492486</v>
+        <v>6.300522483725</v>
       </c>
       <c r="S32">
-        <v>0.000363572470851333</v>
+        <v>0.0001232045418244493</v>
       </c>
       <c r="T32">
-        <v>0.0002615667433658267</v>
+        <v>8.712014214146152E-05</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2459,22 +2459,22 @@
         <v>21</v>
       </c>
       <c r="E33">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F33">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G33">
-        <v>0.907353</v>
+        <v>0.3700483333333333</v>
       </c>
       <c r="H33">
-        <v>2.722059</v>
+        <v>1.110145</v>
       </c>
       <c r="I33">
-        <v>0.00358018955858953</v>
+        <v>0.001446038961210324</v>
       </c>
       <c r="J33">
-        <v>0.003589999837767704</v>
+        <v>0.001457023963616936</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2489,22 +2489,22 @@
         <v>15.185923</v>
       </c>
       <c r="O33">
-        <v>0.2368480046581279</v>
+        <v>0.1519846751111432</v>
       </c>
       <c r="P33">
-        <v>0.2548966428820675</v>
+        <v>0.1599912441592654</v>
       </c>
       <c r="Q33">
-        <v>4.592997597272999</v>
+        <v>1.873175165426111</v>
       </c>
       <c r="R33">
-        <v>41.33697837545699</v>
+        <v>16.858576488835</v>
       </c>
       <c r="S33">
-        <v>0.0008479607532497941</v>
+        <v>0.0002197757617176062</v>
       </c>
       <c r="T33">
-        <v>0.0009150789065941547</v>
+        <v>0.0002331110767089379</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2521,22 +2521,22 @@
         <v>22</v>
       </c>
       <c r="E34">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F34">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G34">
-        <v>0.907353</v>
+        <v>0.3700483333333333</v>
       </c>
       <c r="H34">
-        <v>2.722059</v>
+        <v>1.110145</v>
       </c>
       <c r="I34">
-        <v>0.00358018955858953</v>
+        <v>0.001446038961210324</v>
       </c>
       <c r="J34">
-        <v>0.003589999837767704</v>
+        <v>0.001457023963616936</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>3.815520666666667</v>
+        <v>4.372280666666666</v>
       </c>
       <c r="N34">
-        <v>11.446562</v>
+        <v>13.116842</v>
       </c>
       <c r="O34">
-        <v>0.1785268745202745</v>
+        <v>0.1312767732230829</v>
       </c>
       <c r="P34">
-        <v>0.1921312406457905</v>
+        <v>0.1381924477702479</v>
       </c>
       <c r="Q34">
-        <v>3.462024123462</v>
+        <v>1.617955173565555</v>
       </c>
       <c r="R34">
-        <v>31.158217111158</v>
+        <v>14.56159656209</v>
       </c>
       <c r="S34">
-        <v>0.0006391600520851099</v>
+        <v>0.0001898313287825501</v>
       </c>
       <c r="T34">
-        <v>0.0006897511227484955</v>
+        <v>0.0002013497079921331</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2583,22 +2583,22 @@
         <v>23</v>
       </c>
       <c r="E35">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F35">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G35">
-        <v>0.907353</v>
+        <v>0.3700483333333333</v>
       </c>
       <c r="H35">
-        <v>2.722059</v>
+        <v>1.110145</v>
       </c>
       <c r="I35">
-        <v>0.00358018955858953</v>
+        <v>0.001446038961210324</v>
       </c>
       <c r="J35">
-        <v>0.003589999837767704</v>
+        <v>0.001457023963616936</v>
       </c>
       <c r="K35">
         <v>2</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>2.3695805</v>
+        <v>2.1625465</v>
       </c>
       <c r="N35">
-        <v>4.739161</v>
+        <v>4.325093</v>
       </c>
       <c r="O35">
-        <v>0.1108718409743963</v>
+        <v>0.06492998691259792</v>
       </c>
       <c r="P35">
-        <v>0.07954710615730251</v>
+        <v>0.04556700374251401</v>
       </c>
       <c r="Q35">
-        <v>2.1500459754165</v>
+        <v>0.8002467280808333</v>
       </c>
       <c r="R35">
-        <v>12.900275852499</v>
+        <v>4.801480368485</v>
       </c>
       <c r="S35">
-        <v>0.0003969422073981326</v>
+        <v>9.389129082649305E-05</v>
       </c>
       <c r="T35">
-        <v>0.0002855740981996064</v>
+        <v>6.639221640306554E-05</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2645,22 +2645,22 @@
         <v>24</v>
       </c>
       <c r="E36">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F36">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G36">
-        <v>0.907353</v>
+        <v>0.3700483333333333</v>
       </c>
       <c r="H36">
-        <v>2.722059</v>
+        <v>1.110145</v>
       </c>
       <c r="I36">
-        <v>0.00358018955858953</v>
+        <v>0.001446038961210324</v>
       </c>
       <c r="J36">
-        <v>0.003589999837767704</v>
+        <v>0.001457023963616936</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>3.288577</v>
+        <v>15.97657333333333</v>
       </c>
       <c r="N36">
-        <v>9.865731</v>
+        <v>47.92972</v>
       </c>
       <c r="O36">
-        <v>0.1538713650690733</v>
+        <v>0.479693129114909</v>
       </c>
       <c r="P36">
-        <v>0.1655968959856798</v>
+        <v>0.5049634148023289</v>
       </c>
       <c r="Q36">
-        <v>2.983900206681</v>
+        <v>5.912104334377778</v>
       </c>
       <c r="R36">
-        <v>26.855101860129</v>
+        <v>53.2089390094</v>
       </c>
       <c r="S36">
-        <v>0.0005508886545862141</v>
+        <v>0.000693654954125053</v>
       </c>
       <c r="T36">
-        <v>0.0005944928297234259</v>
+        <v>0.0007357437961168324</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2707,22 +2707,22 @@
         <v>25</v>
       </c>
       <c r="E37">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F37">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G37">
-        <v>0.907353</v>
+        <v>0.3700483333333333</v>
       </c>
       <c r="H37">
-        <v>2.722059</v>
+        <v>1.110145</v>
       </c>
       <c r="I37">
-        <v>0.00358018955858953</v>
+        <v>0.001446038961210324</v>
       </c>
       <c r="J37">
-        <v>0.003589999837767704</v>
+        <v>0.001457023963616936</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>4.666218666666667</v>
+        <v>2.894743333333333</v>
       </c>
       <c r="N37">
-        <v>13.998656</v>
+        <v>8.684229999999999</v>
       </c>
       <c r="O37">
-        <v>0.2183307357409577</v>
+        <v>0.08691403710794816</v>
       </c>
       <c r="P37">
-        <v>0.2349682939430755</v>
+        <v>0.0914926779403015</v>
       </c>
       <c r="Q37">
-        <v>4.233907505856</v>
+        <v>1.071194945927778</v>
       </c>
       <c r="R37">
-        <v>38.105167552704</v>
+        <v>9.640754513349998</v>
       </c>
       <c r="S37">
-        <v>0.0007816654204189466</v>
+        <v>0.0001256810839341729</v>
       </c>
       <c r="T37">
-        <v>0.0008435361371361954</v>
+        <v>0.0001333070242545059</v>
       </c>
     </row>
   </sheetData>
